--- a/Recycle/data/数据结构规划.xlsx
+++ b/Recycle/data/数据结构规划.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4B251D-AA91-4CD8-9484-B5F4B9E72D0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D26485-E69F-44C9-A7D9-4FD136E72CDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17190" yWindow="6345" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="3210" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tve_administrators" sheetId="1" r:id="rId1"/>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>nick</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>administrators_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -250,6 +246,10 @@
   </si>
   <si>
     <t>无符号UNSIGNED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -389,26 +389,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -697,57 +697,57 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -808,548 +808,548 @@
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>8</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="6" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>32</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>20</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
         <v>40</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
         <v>10</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <v>255</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <v>1</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>8</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2" t="s">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2" t="s">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
@@ -1451,6 +1451,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="N23:S24"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="J19:K20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="N13:S14"/>
+    <mergeCell ref="N3:S4"/>
+    <mergeCell ref="F1:S2"/>
+    <mergeCell ref="N5:S6"/>
+    <mergeCell ref="N7:S8"/>
+    <mergeCell ref="N9:S10"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="J13:K14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="N11:S12"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="N17:S18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="N19:S20"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="N21:S22"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="J23:K24"/>
+    <mergeCell ref="L23:M24"/>
     <mergeCell ref="N15:S16"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A1:C2"/>
@@ -1467,81 +1542,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="N17:S18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="N13:S14"/>
-    <mergeCell ref="N3:S4"/>
-    <mergeCell ref="F1:S2"/>
-    <mergeCell ref="N5:S6"/>
-    <mergeCell ref="N7:S8"/>
-    <mergeCell ref="N9:S10"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="J13:K14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="N11:S12"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="N19:S20"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="J21:K22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="N21:S22"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="J23:K24"/>
-    <mergeCell ref="L23:M24"/>
-    <mergeCell ref="N23:S24"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="J19:K20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="L11:M12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1560,50 +1560,50 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1664,430 +1664,396 @@
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>8</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="6" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>8</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
         <v>100</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="N15:S16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="N17:S18"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="J13:K14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="N13:S14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="N11:S12"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="F1:S2"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="N3:S4"/>
     <mergeCell ref="N9:S10"/>
     <mergeCell ref="N5:S6"/>
     <mergeCell ref="B7:C8"/>
@@ -2103,15 +2069,49 @@
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="J5:K6"/>
     <mergeCell ref="L5:M6"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="F1:S2"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="N3:S4"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="N13:S14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="N11:S12"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="J13:K14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="N15:S16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="N17:S18"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B9:C10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2123,57 +2123,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C16454-5689-4AE4-98E3-26A02E9F195B}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2234,194 +2234,169 @@
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>8</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="6" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>8</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>8</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="N9:S10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="N7:S8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="N3:S4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="N5:S6"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="F1:S2"/>
@@ -2432,6 +2407,31 @@
     <mergeCell ref="H3:I4"/>
     <mergeCell ref="J3:K4"/>
     <mergeCell ref="L3:M4"/>
+    <mergeCell ref="N3:S4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N5:S6"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="N7:S8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="N9:S10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:K10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2449,50 +2449,50 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2553,132 +2553,115 @@
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>8</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="6" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>20</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="N7:S8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="N3:S4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="N5:S6"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="F1:S2"/>
@@ -2689,6 +2672,23 @@
     <mergeCell ref="H3:I4"/>
     <mergeCell ref="J3:K4"/>
     <mergeCell ref="L3:M4"/>
+    <mergeCell ref="N3:S4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N5:S6"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="N7:S8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
